--- a/grocery_meal_ingredients.xlsx
+++ b/grocery_meal_ingredients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samclymer/Desktop/classes/BEE4750/final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samclymer/Desktop/classes/BEE4750/MealEmissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687004E-B4C2-2846-8D4E-A693BAAD16F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F33C79-DDFA-3A48-B78F-BEACEAE369FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{3CD7B929-E469-6A4D-9912-92762E30AE07}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Ingredient</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Chioggia Beet</t>
-  </si>
-  <si>
-    <t>Russet Potato</t>
   </si>
   <si>
     <t>Sugar</t>
@@ -614,7 +611,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -696,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -728,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -760,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -792,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -824,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -920,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -952,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1029,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1093,12 +1090,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6">
         <v>316.3</v>
@@ -1125,12 +1122,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6">
         <v>4.4800000000000004</v>
@@ -1157,12 +1154,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="6">
         <v>7.93</v>
@@ -1189,12 +1186,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6">
         <v>44.22</v>
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
